--- a/data/CS5/Market Data/CS5_market_data_2047.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2047.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD21430E-8E6F-42D8-BC4B-1B315B5A7361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E7FF35-E509-4F6C-B7DD-467ED598A285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30195" yWindow="-12885" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33075" yWindow="-10005" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS5/Market Data/CS5_market_data_2047.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2047.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E7FF35-E509-4F6C-B7DD-467ED598A285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529864F3-91CF-47BC-9104-AAD60F49421E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33075" yWindow="-10005" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37860" yWindow="-9330" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,10 +1335,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS5/Market Data/CS5_market_data_2047.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2047.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529864F3-91CF-47BC-9104-AAD60F49421E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDEB4B8-4442-499C-BC95-E9FA2AF37486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37860" yWindow="-9330" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="-12840" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,15 +1338,15 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
+        <f>1/$B$1</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
+        <f>1/$B$1</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
+        <f>1/$B$1</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2047.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2047.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDEB4B8-4442-499C-BC95-E9FA2AF37486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61101A61-6E2F-4750-BE67-3C243F29A0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-12840" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2047.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2047.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61101A61-6E2F-4750-BE67-3C243F29A0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552AFE17-3ED1-457A-A38A-123C2C6F8A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2047.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2047.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552AFE17-3ED1-457A-A38A-123C2C6F8A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF614248-64D0-4056-8988-A58D5FDC4ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2047.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2047.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF614248-64D0-4056-8988-A58D5FDC4ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1C0C0E-B295-4A2D-B61F-0E20405D903B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS5/Market Data/CS5_market_data_2047.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2047.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1C0C0E-B295-4A2D-B61F-0E20405D903B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38882668-CCB3-442F-B93C-652EB64EA18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
